--- a/Code/Results/Cases/Case_5_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_252/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8698802211104635</v>
+        <v>0.5701824574025807</v>
       </c>
       <c r="C2">
-        <v>0.3454587812148304</v>
+        <v>0.2533922926078276</v>
       </c>
       <c r="D2">
-        <v>0.0277875005280066</v>
+        <v>0.04174904649867273</v>
       </c>
       <c r="E2">
-        <v>0.104297621194327</v>
+        <v>0.1189858056445274</v>
       </c>
       <c r="F2">
-        <v>3.089120876260836</v>
+        <v>3.500932584304053</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.701801131206295</v>
+        <v>1.895790595755926</v>
       </c>
       <c r="J2">
-        <v>0.2290294787195393</v>
+        <v>0.2297640702139745</v>
       </c>
       <c r="K2">
-        <v>1.206540439944462</v>
+        <v>0.8222846735844769</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7531263460946889</v>
+        <v>0.5451197963534753</v>
       </c>
       <c r="C3">
-        <v>0.3021024252080053</v>
+        <v>0.2438347924552886</v>
       </c>
       <c r="D3">
-        <v>0.0239655381533268</v>
+        <v>0.04168486166624064</v>
       </c>
       <c r="E3">
-        <v>0.09238727508384059</v>
+        <v>0.1169706671630273</v>
       </c>
       <c r="F3">
-        <v>2.867701360442879</v>
+        <v>3.449881042584849</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.598091586925307</v>
+        <v>1.869807077351808</v>
       </c>
       <c r="J3">
-        <v>0.2053150154869314</v>
+        <v>0.2248288191616368</v>
       </c>
       <c r="K3">
-        <v>1.047030052505562</v>
+        <v>0.7878307064502224</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6825480965255508</v>
+        <v>0.5301823612165322</v>
       </c>
       <c r="C4">
-        <v>0.2760363454749211</v>
+        <v>0.2381351670237564</v>
       </c>
       <c r="D4">
-        <v>0.02164454428969265</v>
+        <v>0.0416896401398823</v>
       </c>
       <c r="E4">
-        <v>0.08524012128447467</v>
+        <v>0.1158102007630362</v>
       </c>
       <c r="F4">
-        <v>2.735750415435859</v>
+        <v>3.419747242399652</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.536379405333079</v>
+        <v>1.854380392277804</v>
       </c>
       <c r="J4">
-        <v>0.1911146789773568</v>
+        <v>0.2219213151692898</v>
       </c>
       <c r="K4">
-        <v>0.9507662588618757</v>
+        <v>0.767294596301781</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6540320127670043</v>
+        <v>0.5242086208188823</v>
       </c>
       <c r="C5">
-        <v>0.2655379502522806</v>
+        <v>0.2358548031491239</v>
       </c>
       <c r="D5">
-        <v>0.02070442102935388</v>
+        <v>0.04170272962925026</v>
       </c>
       <c r="E5">
-        <v>0.08236528984851788</v>
+        <v>0.1153566117168836</v>
       </c>
       <c r="F5">
-        <v>2.682898262837114</v>
+        <v>3.407771354022088</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.511683042830995</v>
+        <v>1.848225932597998</v>
       </c>
       <c r="J5">
-        <v>0.1854097642616566</v>
+        <v>0.2207672744177174</v>
       </c>
       <c r="K5">
-        <v>0.9119098063578122</v>
+        <v>0.7590813423154827</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6493108046546183</v>
+        <v>0.5232235325290446</v>
       </c>
       <c r="C6">
-        <v>0.2638017348563437</v>
+        <v>0.2354786998622558</v>
       </c>
       <c r="D6">
-        <v>0.02054863740085722</v>
+        <v>0.04170557700557609</v>
       </c>
       <c r="E6">
-        <v>0.0818900911261089</v>
+        <v>0.1152824596108921</v>
       </c>
       <c r="F6">
-        <v>2.674175271311981</v>
+        <v>3.405801094338671</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.507608336455775</v>
+        <v>1.847211947982913</v>
       </c>
       <c r="J6">
-        <v>0.1844671654162156</v>
+        <v>0.2205775042577542</v>
       </c>
       <c r="K6">
-        <v>0.9054787980942649</v>
+        <v>0.7577269161320999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6821625689285042</v>
+        <v>0.5301013382417921</v>
       </c>
       <c r="C7">
-        <v>0.2758942793994095</v>
+        <v>0.2381042422412349</v>
       </c>
       <c r="D7">
-        <v>0.02163184334261814</v>
+        <v>0.04168977151411113</v>
       </c>
       <c r="E7">
-        <v>0.08520120277535881</v>
+        <v>0.1158040053285454</v>
       </c>
       <c r="F7">
-        <v>2.735034022903946</v>
+        <v>3.419584502192833</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.536044565973555</v>
+        <v>1.854296857204346</v>
       </c>
       <c r="J7">
-        <v>0.1910374202995015</v>
+        <v>0.2219056268028936</v>
       </c>
       <c r="K7">
-        <v>0.9502407845797052</v>
+        <v>0.7671832006477644</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8293721227583148</v>
+        <v>0.561447171073894</v>
       </c>
       <c r="C8">
-        <v>0.3303844361656729</v>
+        <v>0.2500617569178587</v>
       </c>
       <c r="D8">
-        <v>0.02646387267142103</v>
+        <v>0.04171776230855073</v>
       </c>
       <c r="E8">
-        <v>0.100153998829299</v>
+        <v>0.1182750306622893</v>
       </c>
       <c r="F8">
-        <v>3.011890291151218</v>
+        <v>3.483077886625196</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.665607486643253</v>
+        <v>1.88672169365698</v>
       </c>
       <c r="J8">
-        <v>0.2207724120400911</v>
+        <v>0.2280368672850841</v>
       </c>
       <c r="K8">
-        <v>1.151162210636983</v>
+        <v>0.810276374590245</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.128527494627377</v>
+        <v>0.6265030687045225</v>
       </c>
       <c r="C9">
-        <v>0.4424274756406703</v>
+        <v>0.2748573446426121</v>
       </c>
       <c r="D9">
-        <v>0.03618164898053777</v>
+        <v>0.0421220540191527</v>
       </c>
       <c r="E9">
-        <v>0.1309912812212488</v>
+        <v>0.1237313383506446</v>
       </c>
       <c r="F9">
-        <v>3.590869191373315</v>
+        <v>3.617255044025484</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.937375605246217</v>
+        <v>1.954519826788442</v>
       </c>
       <c r="J9">
-        <v>0.2823784956420781</v>
+        <v>0.2410387194014305</v>
       </c>
       <c r="K9">
-        <v>1.560937084181518</v>
+        <v>0.8997075735611872</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.357300106019551</v>
+        <v>0.6765029606368387</v>
       </c>
       <c r="C10">
-        <v>0.5291253745737095</v>
+        <v>0.2939095837765535</v>
       </c>
       <c r="D10">
-        <v>0.04352833156401914</v>
+        <v>0.04263066759814649</v>
       </c>
       <c r="E10">
-        <v>0.1548783327068577</v>
+        <v>0.128114386141398</v>
       </c>
       <c r="F10">
-        <v>4.044874385560519</v>
+        <v>3.721810146115303</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.151056320556179</v>
+        <v>2.0069461430285</v>
       </c>
       <c r="J10">
-        <v>0.330322798196903</v>
+        <v>0.2511952262824053</v>
       </c>
       <c r="K10">
-        <v>1.875432608235798</v>
+        <v>0.9684466452902711</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.463981264832569</v>
+        <v>0.6997317841503445</v>
       </c>
       <c r="C11">
-        <v>0.5698267286055909</v>
+        <v>0.3027614001306631</v>
       </c>
       <c r="D11">
-        <v>0.04693047776600423</v>
+        <v>0.04290771334387244</v>
       </c>
       <c r="E11">
-        <v>0.1660900685903712</v>
+        <v>0.1301901220694219</v>
       </c>
       <c r="F11">
-        <v>4.259302823204735</v>
+        <v>3.770690999426989</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.252118985093546</v>
+        <v>2.031374494123966</v>
       </c>
       <c r="J11">
-        <v>0.3528863900928059</v>
+        <v>0.2559485712980774</v>
       </c>
       <c r="K11">
-        <v>2.022388985153356</v>
+        <v>1.000384079038383</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.504815889400078</v>
+        <v>0.7085976959401705</v>
       </c>
       <c r="C12">
-        <v>0.585450048054355</v>
+        <v>0.3061401482121653</v>
       </c>
       <c r="D12">
-        <v>0.04822882563343001</v>
+        <v>0.0430191660449637</v>
       </c>
       <c r="E12">
-        <v>0.1703926370561817</v>
+        <v>0.1309879501351077</v>
       </c>
       <c r="F12">
-        <v>4.341794594434759</v>
+        <v>3.789391709831932</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.291019837807383</v>
+        <v>2.040708903699013</v>
       </c>
       <c r="J12">
-        <v>0.361555021473535</v>
+        <v>0.257767793774434</v>
       </c>
       <c r="K12">
-        <v>2.078688252920045</v>
+        <v>1.012574408519555</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496000943424775</v>
+        <v>0.706685163088423</v>
       </c>
       <c r="C13">
-        <v>0.5820754185770909</v>
+        <v>0.3054112814927521</v>
       </c>
       <c r="D13">
-        <v>0.04794873339003658</v>
+        <v>0.04299487219211073</v>
       </c>
       <c r="E13">
-        <v>0.1694633453916907</v>
+        <v>0.1308155988118216</v>
       </c>
       <c r="F13">
-        <v>4.323968351023751</v>
+        <v>3.785355684017986</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.282612495941791</v>
+        <v>2.038694829285419</v>
       </c>
       <c r="J13">
-        <v>0.3596822749247508</v>
+        <v>0.2573751347121771</v>
       </c>
       <c r="K13">
-        <v>2.066532728245846</v>
+        <v>1.009944714276003</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.4673316236007</v>
+        <v>0.7004597912516601</v>
       </c>
       <c r="C14">
-        <v>0.571107668394859</v>
+        <v>0.3030388344963058</v>
       </c>
       <c r="D14">
-        <v>0.04703708413239838</v>
+        <v>0.04291675167308284</v>
       </c>
       <c r="E14">
-        <v>0.1664428579763637</v>
+        <v>0.1302555234199616</v>
       </c>
       <c r="F14">
-        <v>4.266062609081843</v>
+        <v>3.772225692414366</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.255306278029579</v>
+        <v>2.032140756152955</v>
       </c>
       <c r="J14">
-        <v>0.353596974720034</v>
+        <v>0.256097853803638</v>
       </c>
       <c r="K14">
-        <v>2.027007174199468</v>
+        <v>1.001385052669804</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.449829660090586</v>
+        <v>0.6966556467000089</v>
       </c>
       <c r="C15">
-        <v>0.5644179551739796</v>
+        <v>0.3015891320597746</v>
       </c>
       <c r="D15">
-        <v>0.04648002250971928</v>
+        <v>0.04286975171920204</v>
       </c>
       <c r="E15">
-        <v>0.1646003656865105</v>
+        <v>0.1299139973311867</v>
       </c>
       <c r="F15">
-        <v>4.230766926300788</v>
+        <v>3.76420804503914</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.238664953086086</v>
+        <v>2.028137144620445</v>
       </c>
       <c r="J15">
-        <v>0.3498862434976644</v>
+        <v>0.2553179900153708</v>
       </c>
       <c r="K15">
-        <v>2.002884160824607</v>
+        <v>0.9961545652662664</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.350385867342169</v>
+        <v>0.6749946438268353</v>
       </c>
       <c r="C16">
-        <v>0.5264932519513366</v>
+        <v>0.2933348314472255</v>
       </c>
       <c r="D16">
-        <v>0.04330731773996632</v>
+        <v>0.0426134788229362</v>
       </c>
       <c r="E16">
-        <v>0.1541531714659783</v>
+        <v>0.1279803809254716</v>
       </c>
       <c r="F16">
-        <v>4.031032910836444</v>
+        <v>3.718642281419534</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.144535562701989</v>
+        <v>2.005361403245004</v>
       </c>
       <c r="J16">
-        <v>0.3288646974527154</v>
+        <v>0.2508872703327114</v>
       </c>
       <c r="K16">
-        <v>1.865914461801367</v>
+        <v>0.9663729201319597</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.290090580725717</v>
+        <v>0.6618302671426477</v>
       </c>
       <c r="C17">
-        <v>0.5035705686212282</v>
+        <v>0.28831855521139</v>
       </c>
       <c r="D17">
-        <v>0.04137729862982553</v>
+        <v>0.04246794306862967</v>
       </c>
       <c r="E17">
-        <v>0.1478375299915129</v>
+        <v>0.126815151338505</v>
       </c>
       <c r="F17">
-        <v>3.910631616700044</v>
+        <v>3.691027520186765</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.08782972840973</v>
+        <v>1.991538045452941</v>
       </c>
       <c r="J17">
-        <v>0.3161724210745973</v>
+        <v>0.2482033238400021</v>
       </c>
       <c r="K17">
-        <v>1.782945725389879</v>
+        <v>0.9482740681223731</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.255652059007929</v>
+        <v>0.6543039791334877</v>
       </c>
       <c r="C18">
-        <v>0.4905029017812979</v>
+        <v>0.2854507147486629</v>
       </c>
       <c r="D18">
-        <v>0.04027276825021886</v>
+        <v>0.04238853543444066</v>
       </c>
       <c r="E18">
-        <v>0.1442369695356192</v>
+        <v>0.1261526464234777</v>
       </c>
       <c r="F18">
-        <v>3.842113133725633</v>
+        <v>3.67526825389632</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.055572175663386</v>
+        <v>1.983641710682491</v>
       </c>
       <c r="J18">
-        <v>0.3089420250821746</v>
+        <v>0.246672110981109</v>
       </c>
       <c r="K18">
-        <v>1.735584513727417</v>
+        <v>0.93792691389271</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.244031530654922</v>
+        <v>0.6517635208865613</v>
       </c>
       <c r="C19">
-        <v>0.486097652238584</v>
+        <v>0.2844826945358534</v>
       </c>
       <c r="D19">
-        <v>0.0398997093737492</v>
+        <v>0.04236238883715515</v>
       </c>
       <c r="E19">
-        <v>0.1430231748141892</v>
+        <v>0.1259296562824019</v>
       </c>
       <c r="F19">
-        <v>3.819035388666578</v>
+        <v>3.669953705260014</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.044709660638972</v>
+        <v>1.98097748836669</v>
       </c>
       <c r="J19">
-        <v>0.3065054804678908</v>
+        <v>0.2461558164633146</v>
       </c>
       <c r="K19">
-        <v>1.719608095967345</v>
+        <v>0.9344343267473505</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.296483676935594</v>
+        <v>0.6632269262556747</v>
       </c>
       <c r="C20">
-        <v>0.5059984334246792</v>
+        <v>0.2888507454333933</v>
       </c>
       <c r="D20">
-        <v>0.04158216689207705</v>
+        <v>0.04248299068911621</v>
       </c>
       <c r="E20">
-        <v>0.1485064759188504</v>
+        <v>0.1269383945088833</v>
       </c>
       <c r="F20">
-        <v>3.923371583587169</v>
+        <v>3.693954316266399</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.093828572649457</v>
+        <v>1.993003921059824</v>
       </c>
       <c r="J20">
-        <v>0.317516195084977</v>
+        <v>0.2484877378486487</v>
       </c>
       <c r="K20">
-        <v>1.791739985625384</v>
+        <v>0.9501942173288001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.475740119574368</v>
+        <v>0.7022864423291821</v>
       </c>
       <c r="C21">
-        <v>0.5743231972594458</v>
+        <v>0.3037349520892576</v>
       </c>
       <c r="D21">
-        <v>0.04730457360763296</v>
+        <v>0.04293952023724046</v>
       </c>
       <c r="E21">
-        <v>0.1673284412891505</v>
+        <v>0.1304197109470948</v>
       </c>
       <c r="F21">
-        <v>4.283034517626788</v>
+        <v>3.776077108309607</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.263309014125866</v>
+        <v>2.034063563755922</v>
       </c>
       <c r="J21">
-        <v>0.3553808654186241</v>
+        <v>0.2564724994058309</v>
       </c>
       <c r="K21">
-        <v>2.038598369410778</v>
+        <v>1.003896616285687</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.595474281941932</v>
+        <v>0.7282201889411226</v>
       </c>
       <c r="C22">
-        <v>0.6202210721711197</v>
+        <v>0.313618687605981</v>
       </c>
       <c r="D22">
-        <v>0.05110371373534406</v>
+        <v>0.0432760056540431</v>
       </c>
       <c r="E22">
-        <v>0.1799655020551612</v>
+        <v>0.1327636947367594</v>
       </c>
       <c r="F22">
-        <v>4.525714107616977</v>
+        <v>3.830860504690577</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.377791660021686</v>
+        <v>2.06138786903928</v>
       </c>
       <c r="J22">
-        <v>0.3808608623656369</v>
+        <v>0.261803157422392</v>
       </c>
       <c r="K22">
-        <v>2.203773795650335</v>
+        <v>1.039555794536739</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.531311693016278</v>
+        <v>0.7143416618092431</v>
       </c>
       <c r="C23">
-        <v>0.5956001467069143</v>
+        <v>0.3083292149435977</v>
       </c>
       <c r="D23">
-        <v>0.04907012283094758</v>
+        <v>0.04309293793770763</v>
       </c>
       <c r="E23">
-        <v>0.1731875118346338</v>
+        <v>0.1315063697510155</v>
       </c>
       <c r="F23">
-        <v>4.395437753917292</v>
+        <v>3.801519536795752</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.316322601010114</v>
+        <v>2.046759384635408</v>
       </c>
       <c r="J23">
-        <v>0.3671888485499721</v>
+        <v>0.2589477911314049</v>
       </c>
       <c r="K23">
-        <v>2.115232469452167</v>
+        <v>1.020472333817793</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.293592658610379</v>
+        <v>0.6625953655829449</v>
       </c>
       <c r="C24">
-        <v>0.5049004525087355</v>
+        <v>0.2886100921496393</v>
       </c>
       <c r="D24">
-        <v>0.04148953028257552</v>
+        <v>0.04247617438097251</v>
       </c>
       <c r="E24">
-        <v>0.1482039513575231</v>
+        <v>0.1268826532204557</v>
       </c>
       <c r="F24">
-        <v>3.917609670131412</v>
+        <v>3.692630747922351</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.091115431217077</v>
+        <v>1.992341040196621</v>
       </c>
       <c r="J24">
-        <v>0.3169084687075667</v>
+        <v>0.2483591174550384</v>
       </c>
       <c r="K24">
-        <v>1.78776305255775</v>
+        <v>0.949325936871162</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.046224177061475</v>
+        <v>0.6085180375726509</v>
       </c>
       <c r="C25">
-        <v>0.4114434662371877</v>
+        <v>0.2680038690486413</v>
       </c>
       <c r="D25">
-        <v>0.0335210354219484</v>
+        <v>0.04197542615521854</v>
       </c>
       <c r="E25">
-        <v>0.122456931426413</v>
+        <v>0.1221896828368365</v>
       </c>
       <c r="F25">
-        <v>3.429732837668809</v>
+        <v>3.579913227787927</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.861646797988769</v>
+        <v>1.935722785736957</v>
       </c>
       <c r="J25">
-        <v>0.2652941834516724</v>
+        <v>0.2374158460400224</v>
       </c>
       <c r="K25">
-        <v>1.448023052043681</v>
+        <v>0.8749835650944817</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_252/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5701824574025807</v>
+        <v>0.8698802211103214</v>
       </c>
       <c r="C2">
-        <v>0.2533922926078276</v>
+        <v>0.345458781214802</v>
       </c>
       <c r="D2">
-        <v>0.04174904649867273</v>
+        <v>0.0277875005279995</v>
       </c>
       <c r="E2">
-        <v>0.1189858056445274</v>
+        <v>0.1042976211943518</v>
       </c>
       <c r="F2">
-        <v>3.500932584304053</v>
+        <v>3.089120876260836</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.895790595755926</v>
+        <v>1.701801131206267</v>
       </c>
       <c r="J2">
-        <v>0.2297640702139745</v>
+        <v>0.2290294787195677</v>
       </c>
       <c r="K2">
-        <v>0.8222846735844769</v>
+        <v>1.206540439944433</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5451197963534753</v>
+        <v>0.753126346094831</v>
       </c>
       <c r="C3">
-        <v>0.2438347924552886</v>
+        <v>0.3021024252080053</v>
       </c>
       <c r="D3">
-        <v>0.04168486166624064</v>
+        <v>0.02396553815346181</v>
       </c>
       <c r="E3">
-        <v>0.1169706671630273</v>
+        <v>0.09238727508379796</v>
       </c>
       <c r="F3">
-        <v>3.449881042584849</v>
+        <v>2.867701360442908</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.869807077351808</v>
+        <v>1.598091586925335</v>
       </c>
       <c r="J3">
-        <v>0.2248288191616368</v>
+        <v>0.2053150154868533</v>
       </c>
       <c r="K3">
-        <v>0.7878307064502224</v>
+        <v>1.04703005250559</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5301823612165322</v>
+        <v>0.6825480965255224</v>
       </c>
       <c r="C4">
-        <v>0.2381351670237564</v>
+        <v>0.276036345474779</v>
       </c>
       <c r="D4">
-        <v>0.0416896401398823</v>
+        <v>0.02164454428979923</v>
       </c>
       <c r="E4">
-        <v>0.1158102007630362</v>
+        <v>0.08524012128446756</v>
       </c>
       <c r="F4">
-        <v>3.419747242399652</v>
+        <v>2.735750415435859</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.854380392277804</v>
+        <v>1.536379405333108</v>
       </c>
       <c r="J4">
-        <v>0.2219213151692898</v>
+        <v>0.1911146789774492</v>
       </c>
       <c r="K4">
-        <v>0.767294596301781</v>
+        <v>0.9507662588618189</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5242086208188823</v>
+        <v>0.6540320127670896</v>
       </c>
       <c r="C5">
-        <v>0.2358548031491239</v>
+        <v>0.2655379502522806</v>
       </c>
       <c r="D5">
-        <v>0.04170272962925026</v>
+        <v>0.02070442102922954</v>
       </c>
       <c r="E5">
-        <v>0.1153566117168836</v>
+        <v>0.08236528984852498</v>
       </c>
       <c r="F5">
-        <v>3.407771354022088</v>
+        <v>2.682898262837142</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.848225932597998</v>
+        <v>1.511683042831024</v>
       </c>
       <c r="J5">
-        <v>0.2207672744177174</v>
+        <v>0.1854097642616779</v>
       </c>
       <c r="K5">
-        <v>0.7590813423154827</v>
+        <v>0.9119098063578406</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5232235325290446</v>
+        <v>0.6493108046545899</v>
       </c>
       <c r="C6">
-        <v>0.2354786998622558</v>
+        <v>0.2638017348564858</v>
       </c>
       <c r="D6">
-        <v>0.04170557700557609</v>
+        <v>0.02054863740083945</v>
       </c>
       <c r="E6">
-        <v>0.1152824596108921</v>
+        <v>0.08189009112614087</v>
       </c>
       <c r="F6">
-        <v>3.405801094338671</v>
+        <v>2.674175271312052</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.847211947982913</v>
+        <v>1.507608336455803</v>
       </c>
       <c r="J6">
-        <v>0.2205775042577542</v>
+        <v>0.1844671654162227</v>
       </c>
       <c r="K6">
-        <v>0.7577269161320999</v>
+        <v>0.9054787980943502</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5301013382417921</v>
+        <v>0.6821625689285327</v>
       </c>
       <c r="C7">
-        <v>0.2381042422412349</v>
+        <v>0.2758942793995232</v>
       </c>
       <c r="D7">
-        <v>0.04168977151411113</v>
+        <v>0.02163184334273893</v>
       </c>
       <c r="E7">
-        <v>0.1158040053285454</v>
+        <v>0.08520120277532328</v>
       </c>
       <c r="F7">
-        <v>3.419584502192833</v>
+        <v>2.735034022903918</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.854296857204346</v>
+        <v>1.536044565973555</v>
       </c>
       <c r="J7">
-        <v>0.2219056268028936</v>
+        <v>0.19103742029953</v>
       </c>
       <c r="K7">
-        <v>0.7671832006477644</v>
+        <v>0.950240784579762</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.561447171073894</v>
+        <v>0.8293721227584854</v>
       </c>
       <c r="C8">
-        <v>0.2500617569178587</v>
+        <v>0.3303844361651045</v>
       </c>
       <c r="D8">
-        <v>0.04171776230855073</v>
+        <v>0.02646387267176209</v>
       </c>
       <c r="E8">
-        <v>0.1182750306622893</v>
+        <v>0.1001539988293167</v>
       </c>
       <c r="F8">
-        <v>3.483077886625196</v>
+        <v>3.011890291151204</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.88672169365698</v>
+        <v>1.665607486643268</v>
       </c>
       <c r="J8">
-        <v>0.2280368672850841</v>
+        <v>0.2207724120401764</v>
       </c>
       <c r="K8">
-        <v>0.810276374590245</v>
+        <v>1.151162210636897</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6265030687045225</v>
+        <v>1.128527494627377</v>
       </c>
       <c r="C9">
-        <v>0.2748573446426121</v>
+        <v>0.4424274756406135</v>
       </c>
       <c r="D9">
-        <v>0.0421220540191527</v>
+        <v>0.03618164898073672</v>
       </c>
       <c r="E9">
-        <v>0.1237313383506446</v>
+        <v>0.1309912812212382</v>
       </c>
       <c r="F9">
-        <v>3.617255044025484</v>
+        <v>3.590869191373372</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.954519826788442</v>
+        <v>1.937375605246245</v>
       </c>
       <c r="J9">
-        <v>0.2410387194014305</v>
+        <v>0.2823784956419786</v>
       </c>
       <c r="K9">
-        <v>0.8997075735611872</v>
+        <v>1.560937084181546</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6765029606368387</v>
+        <v>1.357300106019522</v>
       </c>
       <c r="C10">
-        <v>0.2939095837765535</v>
+        <v>0.5291253745734537</v>
       </c>
       <c r="D10">
-        <v>0.04263066759814649</v>
+        <v>0.04352833156389835</v>
       </c>
       <c r="E10">
-        <v>0.128114386141398</v>
+        <v>0.1548783327068435</v>
       </c>
       <c r="F10">
-        <v>3.721810146115303</v>
+        <v>4.044874385560433</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.0069461430285</v>
+        <v>2.151056320556165</v>
       </c>
       <c r="J10">
-        <v>0.2511952262824053</v>
+        <v>0.3303227981968746</v>
       </c>
       <c r="K10">
-        <v>0.9684466452902711</v>
+        <v>1.875432608235826</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6997317841503445</v>
+        <v>1.463981264832597</v>
       </c>
       <c r="C11">
-        <v>0.3027614001306631</v>
+        <v>0.5698267286050225</v>
       </c>
       <c r="D11">
-        <v>0.04290771334387244</v>
+        <v>0.04693047776579107</v>
       </c>
       <c r="E11">
-        <v>0.1301901220694219</v>
+        <v>0.1660900685904139</v>
       </c>
       <c r="F11">
-        <v>3.770690999426989</v>
+        <v>4.259302823204791</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.031374494123966</v>
+        <v>2.252118985093588</v>
       </c>
       <c r="J11">
-        <v>0.2559485712980774</v>
+        <v>0.3528863900927774</v>
       </c>
       <c r="K11">
-        <v>1.000384079038383</v>
+        <v>2.022388985153356</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7085976959401705</v>
+        <v>1.504815889400334</v>
       </c>
       <c r="C12">
-        <v>0.3061401482121653</v>
+        <v>0.5854500480542413</v>
       </c>
       <c r="D12">
-        <v>0.0430191660449637</v>
+        <v>0.04822882563318842</v>
       </c>
       <c r="E12">
-        <v>0.1309879501351077</v>
+        <v>0.1703926370562527</v>
       </c>
       <c r="F12">
-        <v>3.789391709831932</v>
+        <v>4.341794594434759</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.040708903699013</v>
+        <v>2.291019837807383</v>
       </c>
       <c r="J12">
-        <v>0.257767793774434</v>
+        <v>0.361555021473535</v>
       </c>
       <c r="K12">
-        <v>1.012574408519555</v>
+        <v>2.078688252920074</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.706685163088423</v>
+        <v>1.496000943424747</v>
       </c>
       <c r="C13">
-        <v>0.3054112814927521</v>
+        <v>0.5820754185773183</v>
       </c>
       <c r="D13">
-        <v>0.04299487219211073</v>
+        <v>0.04794873338999395</v>
       </c>
       <c r="E13">
-        <v>0.1308155988118216</v>
+        <v>0.1694633453917547</v>
       </c>
       <c r="F13">
-        <v>3.785355684017986</v>
+        <v>4.323968351023751</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.038694829285419</v>
+        <v>2.282612495941819</v>
       </c>
       <c r="J13">
-        <v>0.2573751347121771</v>
+        <v>0.359682274924765</v>
       </c>
       <c r="K13">
-        <v>1.009944714276003</v>
+        <v>2.066532728245903</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7004597912516601</v>
+        <v>1.467331623600671</v>
       </c>
       <c r="C14">
-        <v>0.3030388344963058</v>
+        <v>0.5711076683949159</v>
       </c>
       <c r="D14">
-        <v>0.04291675167308284</v>
+        <v>0.04703708413189389</v>
       </c>
       <c r="E14">
-        <v>0.1302555234199616</v>
+        <v>0.1664428579764063</v>
       </c>
       <c r="F14">
-        <v>3.772225692414366</v>
+        <v>4.266062609081814</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.032140756152955</v>
+        <v>2.255306278029551</v>
       </c>
       <c r="J14">
-        <v>0.256097853803638</v>
+        <v>0.353596974719963</v>
       </c>
       <c r="K14">
-        <v>1.001385052669804</v>
+        <v>2.027007174199525</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6966556467000089</v>
+        <v>1.449829660090586</v>
       </c>
       <c r="C15">
-        <v>0.3015891320597746</v>
+        <v>0.5644179551745196</v>
       </c>
       <c r="D15">
-        <v>0.04286975171920204</v>
+        <v>0.04648002250971217</v>
       </c>
       <c r="E15">
-        <v>0.1299139973311867</v>
+        <v>0.1646003656865034</v>
       </c>
       <c r="F15">
-        <v>3.76420804503914</v>
+        <v>4.230766926300788</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.028137144620445</v>
+        <v>2.238664953086101</v>
       </c>
       <c r="J15">
-        <v>0.2553179900153708</v>
+        <v>0.349886243497437</v>
       </c>
       <c r="K15">
-        <v>0.9961545652662664</v>
+        <v>2.002884160824522</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6749946438268353</v>
+        <v>1.350385867342254</v>
       </c>
       <c r="C16">
-        <v>0.2933348314472255</v>
+        <v>0.5264932519517345</v>
       </c>
       <c r="D16">
-        <v>0.0426134788229362</v>
+        <v>0.04330731774017949</v>
       </c>
       <c r="E16">
-        <v>0.1279803809254716</v>
+        <v>0.1541531714659428</v>
       </c>
       <c r="F16">
-        <v>3.718642281419534</v>
+        <v>4.031032910836473</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.005361403245004</v>
+        <v>2.144535562702032</v>
       </c>
       <c r="J16">
-        <v>0.2508872703327114</v>
+        <v>0.3288646974527154</v>
       </c>
       <c r="K16">
-        <v>0.9663729201319597</v>
+        <v>1.865914461801282</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6618302671426477</v>
+        <v>1.290090580725661</v>
       </c>
       <c r="C17">
-        <v>0.28831855521139</v>
+        <v>0.5035705686219671</v>
       </c>
       <c r="D17">
-        <v>0.04246794306862967</v>
+        <v>0.04137729862966921</v>
       </c>
       <c r="E17">
-        <v>0.126815151338505</v>
+        <v>0.1478375299915129</v>
       </c>
       <c r="F17">
-        <v>3.691027520186765</v>
+        <v>3.910631616699987</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.991538045452941</v>
+        <v>2.087829728409744</v>
       </c>
       <c r="J17">
-        <v>0.2482033238400021</v>
+        <v>0.3161724210745405</v>
       </c>
       <c r="K17">
-        <v>0.9482740681223731</v>
+        <v>1.782945725389823</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6543039791334877</v>
+        <v>1.255652059008156</v>
       </c>
       <c r="C18">
-        <v>0.2854507147486629</v>
+        <v>0.4905029017815821</v>
       </c>
       <c r="D18">
-        <v>0.04238853543444066</v>
+        <v>0.04027276825045334</v>
       </c>
       <c r="E18">
-        <v>0.1261526464234777</v>
+        <v>0.1442369695356618</v>
       </c>
       <c r="F18">
-        <v>3.67526825389632</v>
+        <v>3.842113133725661</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.983641710682491</v>
+        <v>2.0555721756634</v>
       </c>
       <c r="J18">
-        <v>0.246672110981109</v>
+        <v>0.3089420250822315</v>
       </c>
       <c r="K18">
-        <v>0.93792691389271</v>
+        <v>1.735584513727417</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6517635208865613</v>
+        <v>1.24403153065515</v>
       </c>
       <c r="C19">
-        <v>0.2844826945358534</v>
+        <v>0.4860976522383567</v>
       </c>
       <c r="D19">
-        <v>0.04236238883715515</v>
+        <v>0.03989970937376341</v>
       </c>
       <c r="E19">
-        <v>0.1259296562824019</v>
+        <v>0.1430231748141608</v>
       </c>
       <c r="F19">
-        <v>3.669953705260014</v>
+        <v>3.819035388666578</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.98097748836669</v>
+        <v>2.044709660639015</v>
       </c>
       <c r="J19">
-        <v>0.2461558164633146</v>
+        <v>0.3065054804677771</v>
       </c>
       <c r="K19">
-        <v>0.9344343267473505</v>
+        <v>1.719608095967345</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6632269262556747</v>
+        <v>1.296483676935537</v>
       </c>
       <c r="C20">
-        <v>0.2888507454333933</v>
+        <v>0.5059984334246792</v>
       </c>
       <c r="D20">
-        <v>0.04248299068911621</v>
+        <v>0.04158216689217653</v>
       </c>
       <c r="E20">
-        <v>0.1269383945088833</v>
+        <v>0.1485064759188361</v>
       </c>
       <c r="F20">
-        <v>3.693954316266399</v>
+        <v>3.923371583587141</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.993003921059824</v>
+        <v>2.093828572649471</v>
       </c>
       <c r="J20">
-        <v>0.2484877378486487</v>
+        <v>0.3175161950849201</v>
       </c>
       <c r="K20">
-        <v>0.9501942173288001</v>
+        <v>1.791739985625441</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7022864423291821</v>
+        <v>1.475740119574539</v>
       </c>
       <c r="C21">
-        <v>0.3037349520892576</v>
+        <v>0.5743231972594174</v>
       </c>
       <c r="D21">
-        <v>0.04293952023724046</v>
+        <v>0.04730457360764717</v>
       </c>
       <c r="E21">
-        <v>0.1304197109470948</v>
+        <v>0.1673284412891505</v>
       </c>
       <c r="F21">
-        <v>3.776077108309607</v>
+        <v>4.28303451762676</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.034063563755922</v>
+        <v>2.26330901412588</v>
       </c>
       <c r="J21">
-        <v>0.2564724994058309</v>
+        <v>0.355380865418482</v>
       </c>
       <c r="K21">
-        <v>1.003896616285687</v>
+        <v>2.038598369410778</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7282201889411226</v>
+        <v>1.595474281941648</v>
       </c>
       <c r="C22">
-        <v>0.313618687605981</v>
+        <v>0.6202210721708354</v>
       </c>
       <c r="D22">
-        <v>0.0432760056540431</v>
+        <v>0.05110371373532274</v>
       </c>
       <c r="E22">
-        <v>0.1327636947367594</v>
+        <v>0.1799655020551825</v>
       </c>
       <c r="F22">
-        <v>3.830860504690577</v>
+        <v>4.525714107617034</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.06138786903928</v>
+        <v>2.377791660021686</v>
       </c>
       <c r="J22">
-        <v>0.261803157422392</v>
+        <v>0.3808608623655942</v>
       </c>
       <c r="K22">
-        <v>1.039555794536739</v>
+        <v>2.203773795650278</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7143416618092431</v>
+        <v>1.531311693016448</v>
       </c>
       <c r="C23">
-        <v>0.3083292149435977</v>
+        <v>0.5956001467069143</v>
       </c>
       <c r="D23">
-        <v>0.04309293793770763</v>
+        <v>0.04907012283117496</v>
       </c>
       <c r="E23">
-        <v>0.1315063697510155</v>
+        <v>0.1731875118346409</v>
       </c>
       <c r="F23">
-        <v>3.801519536795752</v>
+        <v>4.395437753917292</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.046759384635408</v>
+        <v>2.316322601010128</v>
       </c>
       <c r="J23">
-        <v>0.2589477911314049</v>
+        <v>0.3671888485499295</v>
       </c>
       <c r="K23">
-        <v>1.020472333817793</v>
+        <v>2.115232469452167</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6625953655829449</v>
+        <v>1.293592658610436</v>
       </c>
       <c r="C24">
-        <v>0.2886100921496393</v>
+        <v>0.5049004525084797</v>
       </c>
       <c r="D24">
-        <v>0.04247617438097251</v>
+        <v>0.04148953028254709</v>
       </c>
       <c r="E24">
-        <v>0.1268826532204557</v>
+        <v>0.1482039513575444</v>
       </c>
       <c r="F24">
-        <v>3.692630747922351</v>
+        <v>3.917609670131441</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.992341040196621</v>
+        <v>2.091115431217105</v>
       </c>
       <c r="J24">
-        <v>0.2483591174550384</v>
+        <v>0.3169084687075667</v>
       </c>
       <c r="K24">
-        <v>0.949325936871162</v>
+        <v>1.787763052557807</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6085180375726509</v>
+        <v>1.046224177061418</v>
       </c>
       <c r="C25">
-        <v>0.2680038690486413</v>
+        <v>0.4114434662367046</v>
       </c>
       <c r="D25">
-        <v>0.04197542615521854</v>
+        <v>0.03352103542230367</v>
       </c>
       <c r="E25">
-        <v>0.1221896828368365</v>
+        <v>0.1224569314264166</v>
       </c>
       <c r="F25">
-        <v>3.579913227787927</v>
+        <v>3.429732837668809</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.935722785736957</v>
+        <v>1.861646797988783</v>
       </c>
       <c r="J25">
-        <v>0.2374158460400224</v>
+        <v>0.2652941834516156</v>
       </c>
       <c r="K25">
-        <v>0.8749835650944817</v>
+        <v>1.448023052043681</v>
       </c>
       <c r="L25">
         <v>0</v>
